--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3a</t>
+  </si>
+  <si>
+    <t>Plxna1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema3a</t>
-  </si>
-  <si>
-    <t>Plxna1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5388240000000001</v>
+        <v>1.339548666666667</v>
       </c>
       <c r="H2">
-        <v>1.616472</v>
+        <v>4.018646</v>
       </c>
       <c r="I2">
-        <v>0.05035277456536845</v>
+        <v>0.09827984122213275</v>
       </c>
       <c r="J2">
-        <v>0.05035277456536844</v>
+        <v>0.09827984122213274</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.635297666666666</v>
+        <v>7.145781666666667</v>
       </c>
       <c r="N2">
-        <v>16.905893</v>
+        <v>21.437345</v>
       </c>
       <c r="O2">
-        <v>0.09323918274550405</v>
+        <v>0.1148763047483796</v>
       </c>
       <c r="P2">
-        <v>0.09323918274550407</v>
+        <v>0.1148763047483796</v>
       </c>
       <c r="Q2">
-        <v>3.036433629944</v>
+        <v>9.572122303874446</v>
       </c>
       <c r="R2">
-        <v>27.327902669496</v>
+        <v>86.14910073487</v>
       </c>
       <c r="S2">
-        <v>0.004694851549443557</v>
+        <v>0.01129002499085608</v>
       </c>
       <c r="T2">
-        <v>0.004694851549443557</v>
+        <v>0.01129002499085608</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5388240000000001</v>
+        <v>1.339548666666667</v>
       </c>
       <c r="H3">
-        <v>1.616472</v>
+        <v>4.018646</v>
       </c>
       <c r="I3">
-        <v>0.05035277456536845</v>
+        <v>0.09827984122213275</v>
       </c>
       <c r="J3">
-        <v>0.05035277456536844</v>
+        <v>0.09827984122213274</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>55.595342</v>
       </c>
       <c r="O3">
-        <v>0.3066187779927861</v>
+        <v>0.2979187698001963</v>
       </c>
       <c r="P3">
-        <v>0.3066187779927861</v>
+        <v>0.2979187698001963</v>
       </c>
       <c r="Q3">
-        <v>9.985368185936002</v>
+        <v>24.82422208299245</v>
       </c>
       <c r="R3">
-        <v>89.868313673424</v>
+        <v>223.417998746932</v>
       </c>
       <c r="S3">
-        <v>0.01543910620577952</v>
+        <v>0.02927940939305641</v>
       </c>
       <c r="T3">
-        <v>0.01543910620577951</v>
+        <v>0.0292794093930564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5388240000000001</v>
+        <v>1.339548666666667</v>
       </c>
       <c r="H4">
-        <v>1.616472</v>
+        <v>4.018646</v>
       </c>
       <c r="I4">
-        <v>0.05035277456536845</v>
+        <v>0.09827984122213275</v>
       </c>
       <c r="J4">
-        <v>0.05035277456536844</v>
+        <v>0.09827984122213274</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.49771700000001</v>
+        <v>22.83059133333333</v>
       </c>
       <c r="N4">
-        <v>64.49315100000001</v>
+        <v>68.49177399999999</v>
       </c>
       <c r="O4">
-        <v>0.355691869806723</v>
+        <v>0.3670268824232265</v>
       </c>
       <c r="P4">
-        <v>0.355691869806723</v>
+        <v>0.3670268824232265</v>
       </c>
       <c r="Q4">
-        <v>11.583485864808</v>
+        <v>30.58268817977822</v>
       </c>
       <c r="R4">
-        <v>104.251372783272</v>
+        <v>275.244193618004</v>
       </c>
       <c r="S4">
-        <v>0.0179100725351123</v>
+        <v>0.03607134372880909</v>
       </c>
       <c r="T4">
-        <v>0.0179100725351123</v>
+        <v>0.03607134372880908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5388240000000001</v>
+        <v>1.339548666666667</v>
       </c>
       <c r="H5">
-        <v>1.616472</v>
+        <v>4.018646</v>
       </c>
       <c r="I5">
-        <v>0.05035277456536845</v>
+        <v>0.09827984122213275</v>
       </c>
       <c r="J5">
-        <v>0.05035277456536844</v>
+        <v>0.09827984122213274</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.77436233333333</v>
+        <v>13.69598566666667</v>
       </c>
       <c r="N5">
-        <v>44.323087</v>
+        <v>41.087957</v>
       </c>
       <c r="O5">
-        <v>0.2444501694549868</v>
+        <v>0.2201780430281976</v>
       </c>
       <c r="P5">
-        <v>0.2444501694549868</v>
+        <v>0.2201780430281976</v>
       </c>
       <c r="Q5">
-        <v>7.960781009896002</v>
+        <v>18.34643933846911</v>
       </c>
       <c r="R5">
-        <v>71.64702908906401</v>
+        <v>165.117954046222</v>
       </c>
       <c r="S5">
-        <v>0.01230874427503307</v>
+        <v>0.02163906310941117</v>
       </c>
       <c r="T5">
-        <v>0.01230874427503307</v>
+        <v>0.02163906310941117</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>6.120873</v>
       </c>
       <c r="I6">
-        <v>0.1906639510689022</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="J6">
-        <v>0.1906639510689021</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.635297666666666</v>
+        <v>7.145781666666667</v>
       </c>
       <c r="N6">
-        <v>16.905893</v>
+        <v>21.437345</v>
       </c>
       <c r="O6">
-        <v>0.09323918274550405</v>
+        <v>0.1148763047483796</v>
       </c>
       <c r="P6">
-        <v>0.09323918274550407</v>
+        <v>0.1148763047483796</v>
       </c>
       <c r="Q6">
-        <v>11.497647111621</v>
+        <v>14.579474022465</v>
       </c>
       <c r="R6">
-        <v>103.478824004589</v>
+        <v>131.215266202185</v>
       </c>
       <c r="S6">
-        <v>0.01777735097669321</v>
+        <v>0.01719604292984658</v>
       </c>
       <c r="T6">
-        <v>0.01777735097669321</v>
+        <v>0.01719604292984658</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>6.120873</v>
       </c>
       <c r="I7">
-        <v>0.1906639510689022</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="J7">
-        <v>0.1906639510689021</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>55.595342</v>
       </c>
       <c r="O7">
-        <v>0.3066187779927861</v>
+        <v>0.2979187698001963</v>
       </c>
       <c r="P7">
-        <v>0.3066187779927861</v>
+        <v>0.2979187698001963</v>
       </c>
       <c r="Q7">
         <v>37.810225308174</v>
@@ -883,10 +883,10 @@
         <v>340.292027773566</v>
       </c>
       <c r="S7">
-        <v>0.05846114768402315</v>
+        <v>0.0445960023375797</v>
       </c>
       <c r="T7">
-        <v>0.05846114768402314</v>
+        <v>0.0445960023375797</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>6.120873</v>
       </c>
       <c r="I8">
-        <v>0.1906639510689022</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="J8">
-        <v>0.1906639510689021</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.49771700000001</v>
+        <v>22.83059133333333</v>
       </c>
       <c r="N8">
-        <v>64.49315100000001</v>
+        <v>68.49177399999999</v>
       </c>
       <c r="O8">
-        <v>0.355691869806723</v>
+        <v>0.3670268824232265</v>
       </c>
       <c r="P8">
-        <v>0.355691869806723</v>
+        <v>0.3670268824232265</v>
       </c>
       <c r="Q8">
-        <v>43.86159851564701</v>
+        <v>46.58105002207799</v>
       </c>
       <c r="R8">
-        <v>394.754386640823</v>
+        <v>419.2294501987019</v>
       </c>
       <c r="S8">
-        <v>0.06781761726043535</v>
+        <v>0.05494092137087636</v>
       </c>
       <c r="T8">
-        <v>0.06781761726043534</v>
+        <v>0.05494092137087636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>6.120873</v>
       </c>
       <c r="I9">
-        <v>0.1906639510689022</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="J9">
-        <v>0.1906639510689021</v>
+        <v>0.1496918182345096</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.77436233333333</v>
+        <v>13.69598566666667</v>
       </c>
       <c r="N9">
-        <v>44.323087</v>
+        <v>41.087957</v>
       </c>
       <c r="O9">
-        <v>0.2444501694549868</v>
+        <v>0.2201780430281976</v>
       </c>
       <c r="P9">
-        <v>0.2444501694549868</v>
+        <v>0.2201780430281976</v>
       </c>
       <c r="Q9">
-        <v>30.143998499439</v>
+        <v>27.943796291829</v>
       </c>
       <c r="R9">
-        <v>271.295986494951</v>
+        <v>251.494166626461</v>
       </c>
       <c r="S9">
-        <v>0.04660783514775045</v>
+        <v>0.032958851596207</v>
       </c>
       <c r="T9">
-        <v>0.04660783514775044</v>
+        <v>0.032958851596207</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.105726333333333</v>
+        <v>10.25010366666667</v>
       </c>
       <c r="H10">
-        <v>24.317179</v>
+        <v>30.750311</v>
       </c>
       <c r="I10">
-        <v>0.7574751880964914</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="J10">
-        <v>0.7574751880964913</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.635297666666666</v>
+        <v>7.145781666666667</v>
       </c>
       <c r="N10">
-        <v>16.905893</v>
+        <v>21.437345</v>
       </c>
       <c r="O10">
-        <v>0.09323918274550405</v>
+        <v>0.1148763047483796</v>
       </c>
       <c r="P10">
-        <v>0.09323918274550407</v>
+        <v>0.1148763047483796</v>
       </c>
       <c r="Q10">
-        <v>45.67818069287188</v>
+        <v>73.24500286269945</v>
       </c>
       <c r="R10">
-        <v>411.1036262358469</v>
+        <v>659.205025764295</v>
       </c>
       <c r="S10">
-        <v>0.07062636748811382</v>
+        <v>0.08639023682767695</v>
       </c>
       <c r="T10">
-        <v>0.07062636748811382</v>
+        <v>0.08639023682767695</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.105726333333333</v>
+        <v>10.25010366666667</v>
       </c>
       <c r="H11">
-        <v>24.317179</v>
+        <v>30.750311</v>
       </c>
       <c r="I11">
-        <v>0.7574751880964914</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="J11">
-        <v>0.7574751880964913</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>55.595342</v>
       </c>
       <c r="O11">
-        <v>0.3066187779927861</v>
+        <v>0.2979187698001963</v>
       </c>
       <c r="P11">
-        <v>0.3066187779927861</v>
+        <v>0.2979187698001963</v>
       </c>
       <c r="Q11">
-        <v>150.2135425533575</v>
+        <v>189.9526729612624</v>
       </c>
       <c r="R11">
-        <v>1351.921882980218</v>
+        <v>1709.574056651362</v>
       </c>
       <c r="S11">
-        <v>0.232256116534002</v>
+        <v>0.2240433580695601</v>
       </c>
       <c r="T11">
-        <v>0.232256116534002</v>
+        <v>0.2240433580695601</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.105726333333333</v>
+        <v>10.25010366666667</v>
       </c>
       <c r="H12">
-        <v>24.317179</v>
+        <v>30.750311</v>
       </c>
       <c r="I12">
-        <v>0.7574751880964914</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="J12">
-        <v>0.7574751880964913</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.49771700000001</v>
+        <v>22.83059133333333</v>
       </c>
       <c r="N12">
-        <v>64.49315100000001</v>
+        <v>68.49177399999999</v>
       </c>
       <c r="O12">
-        <v>0.355691869806723</v>
+        <v>0.3670268824232265</v>
       </c>
       <c r="P12">
-        <v>0.355691869806723</v>
+        <v>0.3670268824232265</v>
       </c>
       <c r="Q12">
-        <v>174.2546107934477</v>
+        <v>234.0159279379682</v>
       </c>
       <c r="R12">
-        <v>1568.291497141029</v>
+        <v>2106.143351441714</v>
       </c>
       <c r="S12">
-        <v>0.2694277659862402</v>
+        <v>0.276014617323541</v>
       </c>
       <c r="T12">
-        <v>0.2694277659862402</v>
+        <v>0.276014617323541</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>8.105726333333333</v>
+        <v>10.25010366666667</v>
       </c>
       <c r="H13">
-        <v>24.317179</v>
+        <v>30.750311</v>
       </c>
       <c r="I13">
-        <v>0.7574751880964914</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="J13">
-        <v>0.7574751880964913</v>
+        <v>0.7520283405433575</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.77436233333333</v>
+        <v>13.69598566666667</v>
       </c>
       <c r="N13">
-        <v>44.323087</v>
+        <v>41.087957</v>
       </c>
       <c r="O13">
-        <v>0.2444501694549868</v>
+        <v>0.2201780430281976</v>
       </c>
       <c r="P13">
-        <v>0.2444501694549868</v>
+        <v>0.2201780430281976</v>
       </c>
       <c r="Q13">
-        <v>119.7569378235081</v>
+        <v>140.3852729005141</v>
       </c>
       <c r="R13">
-        <v>1077.812440411573</v>
+        <v>1263.467456104627</v>
       </c>
       <c r="S13">
-        <v>0.1851649380881353</v>
+        <v>0.1655801283225794</v>
       </c>
       <c r="T13">
-        <v>0.1851649380881353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.016138</v>
-      </c>
-      <c r="H14">
-        <v>0.048414</v>
-      </c>
-      <c r="I14">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="J14">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>5.635297666666666</v>
-      </c>
-      <c r="N14">
-        <v>16.905893</v>
-      </c>
-      <c r="O14">
-        <v>0.09323918274550405</v>
-      </c>
-      <c r="P14">
-        <v>0.09323918274550407</v>
-      </c>
-      <c r="Q14">
-        <v>0.09094243374466666</v>
-      </c>
-      <c r="R14">
-        <v>0.8184819037019999</v>
-      </c>
-      <c r="S14">
-        <v>0.0001406127312534707</v>
-      </c>
-      <c r="T14">
-        <v>0.0001406127312534708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.016138</v>
-      </c>
-      <c r="H15">
-        <v>0.048414</v>
-      </c>
-      <c r="I15">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="J15">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>18.53178066666667</v>
-      </c>
-      <c r="N15">
-        <v>55.595342</v>
-      </c>
-      <c r="O15">
-        <v>0.3066187779927861</v>
-      </c>
-      <c r="P15">
-        <v>0.3066187779927861</v>
-      </c>
-      <c r="Q15">
-        <v>0.2990658763986667</v>
-      </c>
-      <c r="R15">
-        <v>2.691592887588</v>
-      </c>
-      <c r="S15">
-        <v>0.0004624075689814667</v>
-      </c>
-      <c r="T15">
-        <v>0.0004624075689814667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.016138</v>
-      </c>
-      <c r="H16">
-        <v>0.048414</v>
-      </c>
-      <c r="I16">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="J16">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>21.49771700000001</v>
-      </c>
-      <c r="N16">
-        <v>64.49315100000001</v>
-      </c>
-      <c r="O16">
-        <v>0.355691869806723</v>
-      </c>
-      <c r="P16">
-        <v>0.355691869806723</v>
-      </c>
-      <c r="Q16">
-        <v>0.346930156946</v>
-      </c>
-      <c r="R16">
-        <v>3.122371412514001</v>
-      </c>
-      <c r="S16">
-        <v>0.0005364140249351222</v>
-      </c>
-      <c r="T16">
-        <v>0.0005364140249351222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.016138</v>
-      </c>
-      <c r="H17">
-        <v>0.048414</v>
-      </c>
-      <c r="I17">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="J17">
-        <v>0.001508086269238037</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>14.77436233333333</v>
-      </c>
-      <c r="N17">
-        <v>44.323087</v>
-      </c>
-      <c r="O17">
-        <v>0.2444501694549868</v>
-      </c>
-      <c r="P17">
-        <v>0.2444501694549868</v>
-      </c>
-      <c r="Q17">
-        <v>0.2384286593353333</v>
-      </c>
-      <c r="R17">
-        <v>2.145857934018</v>
-      </c>
-      <c r="S17">
-        <v>0.000368651944067977</v>
-      </c>
-      <c r="T17">
-        <v>0.000368651944067977</v>
+        <v>0.1655801283225794</v>
       </c>
     </row>
   </sheetData>
